--- a/stm/scratch/Matrix_and_rhs_test.xlsx
+++ b/stm/scratch/Matrix_and_rhs_test.xlsx
@@ -376,8 +376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AA69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1981,7 +1981,8 @@
         <v>1.00493827160494</v>
       </c>
       <c r="H28">
-        <v>-2.4691358024691401E-3</v>
+        <f>D33</f>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
